--- a/Sandy-PrácticaDocente/CelsaVirgen/Reactivos_Especificaciones-Habilidades_040619.xlsx
+++ b/Sandy-PrácticaDocente/CelsaVirgen/Reactivos_Especificaciones-Habilidades_040619.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="6510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="6510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Eje1_EFM" sheetId="5" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="Eje3_SNPA" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Eje1_EFM!$A$3:$J$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Eje3_SNPA!$A$3:$J$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Eje1_EFM!$A$3:$J$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Eje3_SNPA!$A$3:$J$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="220">
   <si>
     <t>ID reactivo</t>
   </si>
@@ -351,9 +351,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>Observaciones: Por problemas en el proceso de impresión, la imprenta encargada dejó fuera de la prueba los cuatro reactivos marcados en rojo.</t>
   </si>
   <si>
     <t>Calcular el área de triángulos.</t>
@@ -3681,7 +3678,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3729,12 +3726,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -3755,20 +3746,13 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3778,12 +3762,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -4118,9 +4096,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4131,25 +4109,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4161,10 +4136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4173,7 +4145,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4185,16 +4157,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4212,19 +4184,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4236,22 +4208,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4266,7 +4238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4290,10 +4262,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4302,10 +4274,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4323,13 +4295,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4350,13 +4322,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4377,22 +4349,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4401,38 +4373,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4440,2077 +4421,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="288">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="81">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -7602,796 +5513,781 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="21" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="21" customWidth="1"/>
-    <col min="8" max="8" width="51.140625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="51.140625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="98" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
+      <c r="A1" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="99" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
+      <c r="A2" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
     </row>
-    <row r="3" spans="1:10" s="9" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:10" s="8" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="I3" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="J3" s="86" t="s">
-        <v>157</v>
+      <c r="J3" s="84" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="43">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="90" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="I4" s="24">
+      <c r="E4" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="22">
         <v>16</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="29">
         <f>I4*100/25</f>
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46">
+      <c r="A5" s="44">
         <v>22</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="I5" s="18">
+      <c r="E5" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="I5" s="16">
         <v>9</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="29">
         <f t="shared" ref="J5:J7" si="0">I5*100/25</f>
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46">
+      <c r="A6" s="44">
         <v>33</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="I6" s="18">
+      <c r="E6" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="I6" s="16">
         <v>10</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="29">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47">
+      <c r="A7" s="45">
         <v>34</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="I7" s="39">
+      <c r="E7" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" s="37">
         <v>9</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="29">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="98" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
+      <c r="A8" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="93" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" s="100" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
+      <c r="A9" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
     </row>
     <row r="10" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="C10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="I10" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="J10" s="86" t="s">
-        <v>157</v>
+      <c r="J10" s="84" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="123" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="A11" s="43">
         <v>4</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="I11" s="24">
+      <c r="E11" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="I11" s="22">
         <v>17</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="29">
         <f>I11*100/25</f>
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="123" x14ac:dyDescent="0.25">
-      <c r="A12" s="46">
+      <c r="A12" s="44">
         <v>8</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="I12" s="13">
+      <c r="E12" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" s="12">
         <v>11</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="29">
         <f t="shared" ref="J12:J21" si="1">I12*100/25</f>
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="46">
+      <c r="A13" s="44">
         <v>10</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="I13" s="13">
+      <c r="E13" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" s="12">
         <v>14</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="29">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="46">
+      <c r="A14" s="44">
         <v>11</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="I14" s="13">
+      <c r="E14" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="I14" s="12">
         <v>18</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="29">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="123" x14ac:dyDescent="0.25">
-      <c r="A15" s="46">
+      <c r="A15" s="44">
         <v>15</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="I15" s="18">
+      <c r="E15" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="I15" s="16">
         <v>12</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="29">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="123" x14ac:dyDescent="0.25">
-      <c r="A16" s="46">
+      <c r="A16" s="44">
         <v>16</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="I16" s="18">
+      <c r="E16" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" s="16">
         <v>11</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="29">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="46">
+      <c r="A17" s="44">
         <v>17</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="I17" s="18">
+      <c r="E17" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="I17" s="16">
         <v>15</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="29">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="125.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="46">
+      <c r="A18" s="44">
         <v>29</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="I18" s="18">
+      <c r="E18" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="I18" s="16">
         <v>12</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="29">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="199.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="46">
+      <c r="A19" s="44">
         <v>36</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="I19" s="18">
+      <c r="E19" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="I19" s="16">
         <v>4</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="29">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="282.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="46">
+      <c r="A20" s="44">
         <v>37</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="I20" s="18">
+      <c r="E20" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="I20" s="16">
         <v>5</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="29">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47">
+      <c r="A21" s="45">
         <v>42</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="I21" s="39">
+      <c r="E21" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="I21" s="37">
         <v>6</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="29">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" s="98" t="s">
-        <v>183</v>
-      </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
+      <c r="A22" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="93" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="B23" s="100" t="s">
-        <v>209</v>
-      </c>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
+      <c r="A23" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="95" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
     </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41" t="s">
+    <row r="24" spans="1:10" s="8" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="C24" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="H24" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="I24" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="C24" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="G24" s="78" t="s">
-        <v>201</v>
-      </c>
-      <c r="H24" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="I24" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="J24" s="86" t="s">
-        <v>157</v>
+      <c r="J24" s="84" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="45">
+      <c r="A25" s="43">
         <v>32</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="I25" s="89">
+      <c r="E25" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="I25" s="87">
         <v>11</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="29">
         <f>I25*100/25</f>
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="48">
+      <c r="A26" s="46">
         <v>47</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="G26" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="H26" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="I26" s="55">
+      <c r="E26" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="H26" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="I26" s="53">
         <v>13</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="29">
         <f>I26*100/25</f>
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A27:J27"/>
+  <mergeCells count="6">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B8:J8"/>
@@ -8400,95 +6296,95 @@
     <mergeCell ref="B23:J23"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J7 J11:J21 J25:J26">
-    <cfRule type="cellIs" dxfId="287" priority="122" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="122" operator="lessThan">
       <formula>30.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="132" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="132" operator="between">
       <formula>30.9</formula>
       <formula>70.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="133" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="133" operator="lessThan">
       <formula>30.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="134" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="134" operator="lessThan">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="135" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="135" operator="greaterThan">
       <formula>69.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="136" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="136" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="137" operator="between">
+    <cfRule type="cellIs" dxfId="74" priority="137" operator="between">
       <formula>31</formula>
       <formula>69</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="138" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="138" operator="lessThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="139" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="139" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="278" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="104" operator="lessThan">
       <formula>30.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="114" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="114" operator="between">
       <formula>30.9</formula>
       <formula>70.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="115" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="115" operator="lessThan">
       <formula>30.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="116" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="116" operator="lessThan">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="117" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="117" operator="greaterThan">
       <formula>69.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="118" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="118" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="119" operator="between">
+    <cfRule type="cellIs" dxfId="65" priority="119" operator="between">
       <formula>31</formula>
       <formula>69</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="120" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="120" operator="lessThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="121" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="121" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="cellIs" dxfId="224" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="1" operator="lessThan">
       <formula>30.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="11" operator="between">
       <formula>30.9</formula>
       <formula>70.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="12" operator="lessThan">
       <formula>30.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="13" operator="lessThan">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="14" operator="greaterThan">
       <formula>69.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="15" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="56" priority="16" operator="between">
       <formula>31</formula>
       <formula>69</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="17" operator="lessThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="18" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8498,10 +6394,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J3" sqref="A1:J1048576"/>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8519,577 +6415,562 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="98" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
+      <c r="A1" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="101" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
+      <c r="A2" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
     </row>
     <row r="3" spans="1:10" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="H3" s="88" t="s">
-        <v>181</v>
-      </c>
-      <c r="I3" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="J3" s="86" t="s">
-        <v>157</v>
+      <c r="J3" s="84" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="43">
         <v>6</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="73" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="G4" s="74" t="s">
-        <v>205</v>
-      </c>
-      <c r="H4" s="75" t="s">
-        <v>215</v>
-      </c>
-      <c r="I4" s="76">
+      <c r="E4" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="I4" s="74">
         <v>11</v>
       </c>
-      <c r="J4" s="77">
+      <c r="J4" s="75">
         <f>I4*100/25</f>
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46">
+      <c r="A5" s="44">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>205</v>
+      <c r="E5" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>204</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I5" s="8">
+        <v>167</v>
+      </c>
+      <c r="I5" s="7">
         <v>13</v>
       </c>
-      <c r="J5" s="77">
+      <c r="J5" s="75">
         <f t="shared" ref="J5:J10" si="0">I5*100/25</f>
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46">
+      <c r="A6" s="44">
         <v>19</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>205</v>
+      <c r="E6" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>204</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I6" s="10">
+        <v>174</v>
+      </c>
+      <c r="I6" s="9">
         <v>5</v>
       </c>
-      <c r="J6" s="77">
+      <c r="J6" s="75">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46">
+      <c r="A7" s="44">
         <v>27</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>205</v>
+      <c r="E7" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>204</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I7" s="10">
+        <v>167</v>
+      </c>
+      <c r="I7" s="9">
         <v>8</v>
       </c>
-      <c r="J7" s="77">
+      <c r="J7" s="75">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46">
+      <c r="A8" s="44">
         <v>30</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>205</v>
+      <c r="E8" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>204</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I8" s="10">
+        <v>185</v>
+      </c>
+      <c r="I8" s="9">
         <v>13</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="75">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46">
+      <c r="A9" s="44">
         <v>31</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>205</v>
+      <c r="E9" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>204</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="I9" s="10">
+        <v>186</v>
+      </c>
+      <c r="I9" s="9">
         <v>12</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="75">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47">
+      <c r="A10" s="45">
         <v>50</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="83" t="s">
-        <v>184</v>
-      </c>
-      <c r="G10" s="83" t="s">
-        <v>205</v>
-      </c>
-      <c r="H10" s="84" t="s">
-        <v>200</v>
-      </c>
-      <c r="I10" s="85">
+      <c r="E10" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="I10" s="83">
         <v>3</v>
       </c>
-      <c r="J10" s="77">
+      <c r="J10" s="75">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" s="102" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
+      <c r="A11" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="87" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" s="104" t="s">
-        <v>206</v>
-      </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
+      <c r="A12" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
     </row>
     <row r="13" spans="1:10" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="C13" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="H13" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="H13" s="88" t="s">
-        <v>181</v>
-      </c>
-      <c r="I13" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="J13" s="86" t="s">
-        <v>157</v>
+      <c r="J13" s="84" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="92.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="43">
         <v>7</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14" s="75" t="s">
-        <v>206</v>
-      </c>
-      <c r="H14" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="I14" s="76">
+      <c r="E14" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="H14" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="I14" s="74">
         <v>14</v>
       </c>
-      <c r="J14" s="77">
+      <c r="J14" s="75">
         <f>I14*100/25</f>
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46">
+      <c r="A15" s="44">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>184</v>
+      <c r="E15" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>183</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I15" s="8">
+        <v>171</v>
+      </c>
+      <c r="I15" s="7">
         <v>11</v>
       </c>
-      <c r="J15" s="77">
+      <c r="J15" s="75">
         <f t="shared" ref="J15:J17" si="1">I15*100/25</f>
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46">
+      <c r="A16" s="44">
         <v>39</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>184</v>
+      <c r="E16" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>183</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="I16" s="10">
+        <v>193</v>
+      </c>
+      <c r="I16" s="9">
         <v>3</v>
       </c>
-      <c r="J16" s="77">
+      <c r="J16" s="75">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48">
+      <c r="A17" s="46">
         <v>41</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="65" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G17" s="67" t="s">
-        <v>206</v>
-      </c>
-      <c r="H17" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="I17" s="68">
+      <c r="E17" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="H17" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="I17" s="66">
         <v>7</v>
       </c>
-      <c r="J17" s="77">
+      <c r="J17" s="75">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A18:J18"/>
+  <mergeCells count="4">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="B12:J12"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J10 J14:J17">
-    <cfRule type="cellIs" dxfId="215" priority="70" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="70" operator="lessThan">
       <formula>30.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="80" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="80" operator="between">
       <formula>30.9</formula>
       <formula>70.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="81" operator="lessThan">
       <formula>30.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="82" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="82" operator="lessThan">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="83" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="83" operator="greaterThan">
       <formula>69.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="84" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="84" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="85" operator="between">
+    <cfRule type="cellIs" dxfId="47" priority="85" operator="between">
       <formula>31</formula>
       <formula>69</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="86" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="86" operator="lessThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="87" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="179" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="lessThan">
       <formula>30.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="between">
       <formula>30.9</formula>
       <formula>70.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="12" operator="lessThan">
       <formula>30.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="13" operator="lessThan">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="14" operator="greaterThan">
       <formula>69.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="between">
       <formula>31</formula>
       <formula>69</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="lessThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9099,961 +6980,946 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="50.7109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="50.7109375" style="10" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="98" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
+      <c r="A1" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="95" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
     </row>
     <row r="3" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="C3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="G3" s="78" t="s">
-        <v>201</v>
-      </c>
-      <c r="H3" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="I3" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="J3" s="86" t="s">
-        <v>157</v>
+      <c r="J3" s="84" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="43">
         <v>1</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4" s="74" t="s">
-        <v>202</v>
-      </c>
-      <c r="H4" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="I4" s="76">
+      <c r="E4" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" s="74">
         <v>22</v>
       </c>
-      <c r="J4" s="77">
+      <c r="J4" s="75">
         <f>I4*100/25</f>
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46">
+      <c r="A5" s="44">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="E5" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="7">
         <v>20</v>
       </c>
-      <c r="J5" s="77">
+      <c r="J5" s="75">
         <f t="shared" ref="J5:J12" si="0">I5*100/25</f>
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46">
+      <c r="A6" s="44">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="E6" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="7">
         <v>22</v>
       </c>
-      <c r="J6" s="77">
+      <c r="J6" s="75">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46">
+      <c r="A7" s="44">
         <v>12</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="E7" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="I7" s="7">
         <v>11</v>
       </c>
-      <c r="J7" s="77">
+      <c r="J7" s="75">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="46">
+      <c r="A8" s="44">
         <v>20</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="I8" s="10">
+      <c r="E8" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="I8" s="9">
         <v>10</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="75">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="46">
+      <c r="A9" s="44">
         <v>26</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="I9" s="10">
+      <c r="E9" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="I9" s="9">
         <v>10</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="75">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="46">
+      <c r="A10" s="44">
         <v>40</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="60" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="I10" s="10">
+      <c r="E10" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="9">
         <v>10</v>
       </c>
-      <c r="J10" s="77">
+      <c r="J10" s="75">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="92.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="46">
+      <c r="A11" s="44">
         <v>43</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="I11" s="8">
+      <c r="E11" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="I11" s="7">
         <v>7</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J11" s="75">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="123.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47">
+      <c r="A12" s="45">
         <v>49</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="81" t="s">
+      <c r="D12" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="83" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="83" t="s">
-        <v>202</v>
-      </c>
-      <c r="H12" s="83" t="s">
-        <v>199</v>
-      </c>
-      <c r="I12" s="85">
+      <c r="E12" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="I12" s="83">
         <v>8</v>
       </c>
-      <c r="J12" s="77">
+      <c r="J12" s="75">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" s="98" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
+      <c r="A13" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="93" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="B14" s="100" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
+      <c r="A14" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="95" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
     </row>
     <row r="15" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="C15" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="H15" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="I15" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="G15" s="78" t="s">
-        <v>201</v>
-      </c>
-      <c r="H15" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="I15" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="J15" s="86" t="s">
-        <v>157</v>
+      <c r="J15" s="84" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+      <c r="A16" s="43">
         <v>21</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="G16" s="74" t="s">
-        <v>208</v>
-      </c>
-      <c r="H16" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="I16" s="91">
+      <c r="E16" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="H16" s="72" t="s">
+        <v>210</v>
+      </c>
+      <c r="I16" s="89">
         <v>12</v>
       </c>
-      <c r="J16" s="77">
+      <c r="J16" s="75">
         <f>I16*100/25</f>
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="123" x14ac:dyDescent="0.25">
-      <c r="A17" s="46">
+      <c r="A17" s="44">
         <v>23</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="I17" s="10">
+      <c r="E17" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="I17" s="9">
         <v>7</v>
       </c>
-      <c r="J17" s="77">
+      <c r="J17" s="75">
         <f t="shared" ref="J17:J20" si="1">I17*100/25</f>
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="123" x14ac:dyDescent="0.25">
-      <c r="A18" s="46">
+      <c r="A18" s="44">
         <v>28</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="I18" s="10">
+      <c r="E18" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="I18" s="9">
         <v>16</v>
       </c>
-      <c r="J18" s="77">
+      <c r="J18" s="75">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="108" x14ac:dyDescent="0.25">
-      <c r="A19" s="46">
+      <c r="A19" s="44">
         <v>38</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="I19" s="10">
+      <c r="E19" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="I19" s="9">
         <v>10</v>
       </c>
-      <c r="J19" s="77">
+      <c r="J19" s="75">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="174" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47">
+      <c r="A20" s="45">
         <v>48</v>
       </c>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="82" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="83" t="s">
-        <v>182</v>
-      </c>
-      <c r="G20" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="H20" s="83" t="s">
-        <v>214</v>
-      </c>
-      <c r="I20" s="85">
+      <c r="E20" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="H20" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="I20" s="83">
         <v>11</v>
       </c>
-      <c r="J20" s="77">
+      <c r="J20" s="75">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="98" t="s">
-        <v>182</v>
-      </c>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
+      <c r="A21" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="93" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" s="100" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
+      <c r="A22" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="95" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
     </row>
     <row r="23" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="C23" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="H23" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="I23" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="G23" s="78" t="s">
-        <v>201</v>
-      </c>
-      <c r="H23" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="I23" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="J23" s="86" t="s">
-        <v>157</v>
+      <c r="J23" s="84" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="45">
+      <c r="A24" s="43">
         <v>14</v>
       </c>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="72" t="s">
+      <c r="D24" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="73" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="G24" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="H24" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="I24" s="91">
+      <c r="E24" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="H24" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" s="89">
         <v>13</v>
       </c>
-      <c r="J24" s="77">
+      <c r="J24" s="75">
         <f>I24*100/25</f>
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="92.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="46">
+      <c r="A25" s="44">
         <v>18</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="I25" s="10">
+      <c r="E25" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" s="9">
         <v>12</v>
       </c>
-      <c r="J25" s="77">
+      <c r="J25" s="75">
         <f t="shared" ref="J25:J31" si="2">I25*100/25</f>
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="46">
+      <c r="A26" s="44">
         <v>24</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="I26" s="10">
+      <c r="E26" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="I26" s="9">
         <v>9</v>
       </c>
-      <c r="J26" s="77">
+      <c r="J26" s="75">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="126" x14ac:dyDescent="0.25">
-      <c r="A27" s="46">
+      <c r="A27" s="44">
         <v>25</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="H27" s="92" t="s">
-        <v>212</v>
-      </c>
-      <c r="I27" s="10">
+      <c r="E27" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="H27" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="I27" s="9">
         <v>4</v>
       </c>
-      <c r="J27" s="77">
+      <c r="J27" s="75">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="153.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="46">
+      <c r="A28" s="44">
         <v>35</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>85</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="I28" s="10">
+      <c r="E28" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="I28" s="9">
         <v>14</v>
       </c>
-      <c r="J28" s="77">
+      <c r="J28" s="75">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="46">
+      <c r="A29" s="44">
         <v>44</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="I29" s="8">
+      <c r="E29" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="I29" s="7">
         <v>10</v>
       </c>
-      <c r="J29" s="77">
+      <c r="J29" s="75">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="108" x14ac:dyDescent="0.25">
-      <c r="A30" s="46">
+      <c r="A30" s="44">
         <v>45</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="I30" s="8">
+      <c r="E30" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="I30" s="7">
         <v>5</v>
       </c>
-      <c r="J30" s="77">
+      <c r="J30" s="75">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="139.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="48">
+      <c r="A31" s="46">
         <v>46</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="93" t="s">
-        <v>143</v>
-      </c>
-      <c r="F31" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="H31" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="I31" s="69">
+      <c r="E31" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="H31" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="I31" s="67">
         <v>9</v>
       </c>
-      <c r="J31" s="77">
+      <c r="J31" s="75">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A32:J32"/>
+  <mergeCells count="6">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B21:J21"/>
@@ -10062,126 +7928,126 @@
     <mergeCell ref="B14:J14"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J12 J24:J31">
-    <cfRule type="cellIs" dxfId="170" priority="190" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="190" operator="lessThan">
       <formula>30.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="200" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="200" operator="between">
       <formula>30.9</formula>
       <formula>70.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="201" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="201" operator="lessThan">
       <formula>30.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="202" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="202" operator="lessThan">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="203" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="203" operator="greaterThan">
       <formula>69.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="204" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="204" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="205" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="205" operator="between">
       <formula>31</formula>
       <formula>69</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="206" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="206" operator="lessThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="207" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="207" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="161" priority="172" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="172" operator="lessThan">
       <formula>30.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="182" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="182" operator="between">
       <formula>30.9</formula>
       <formula>70.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="183" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="183" operator="lessThan">
       <formula>30.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="184" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="184" operator="lessThan">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="185" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="185" operator="greaterThan">
       <formula>69.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="186" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="186" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="187" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="187" operator="between">
       <formula>31</formula>
       <formula>69</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="188" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="188" operator="lessThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="189" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="189" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="152" priority="137" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="137" operator="lessThan">
       <formula>30.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="147" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="147" operator="between">
       <formula>30.9</formula>
       <formula>70.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="148" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="148" operator="lessThan">
       <formula>30.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="149" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="149" operator="lessThan">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="150" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="150" operator="greaterThan">
       <formula>69.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="151" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="151" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="152" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="152" operator="between">
       <formula>31</formula>
       <formula>69</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="153" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="153" operator="lessThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="154" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="154" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:J20">
-    <cfRule type="cellIs" dxfId="134" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="103" operator="lessThan">
       <formula>30.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="112" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="112" operator="between">
       <formula>30.9</formula>
       <formula>70.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="113" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="113" operator="lessThan">
       <formula>30.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="114" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="114" operator="lessThan">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="115" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="115" operator="greaterThan">
       <formula>69.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="116" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="116" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="117" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="117" operator="between">
       <formula>31</formula>
       <formula>69</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="118" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="118" operator="lessThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="119" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="119" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
